--- a/Files/Vaccine_February 1, 2022.xlsx
+++ b/Files/Vaccine_February 1, 2022.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="311">
   <si>
     <t xml:space="preserve">Vaccine</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">Contract Number</t>
   </si>
   <si>
-    <t xml:space="preserve">Dengue Tetravalent Vaccine, Live [7]</t>
+    <t xml:space="preserve">Dengue Tetravalent Vaccine, Live </t>
   </si>
   <si>
     <t xml:space="preserve">Dengvaxia</t>
@@ -68,7 +68,7 @@
     <t xml:space="preserve">75D30121D10576</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP [1]</t>
+    <t xml:space="preserve">DTaP </t>
   </si>
   <si>
     <t xml:space="preserve">Daptacel</t>
@@ -107,7 +107,7 @@
     <t xml:space="preserve">75D30121D10573</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-IPV [2]</t>
+    <t xml:space="preserve">DTaP-IPV </t>
   </si>
   <si>
     <t xml:space="preserve">Quadracel</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">$55.639</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-Hep B-IPV [4]</t>
+    <t xml:space="preserve">DTaP-Hep B-IPV </t>
   </si>
   <si>
     <t xml:space="preserve">Pediarix</t>
@@ -149,7 +149,7 @@
     <t xml:space="preserve">$90.045</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-IP-HI [4]</t>
+    <t xml:space="preserve">DTaP-IP-HI </t>
   </si>
   <si>
     <t xml:space="preserve">Pentacel</t>
@@ -167,7 +167,7 @@
     <t xml:space="preserve">N/A</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-IPV-HIB-HEPB [6]</t>
+    <t xml:space="preserve">DTaP-IPV-HIB-HEPB </t>
   </si>
   <si>
     <t xml:space="preserve">Vaxelis</t>
@@ -191,7 +191,7 @@
     <t xml:space="preserve">63361-0243-15</t>
   </si>
   <si>
-    <t xml:space="preserve">e-IPV [5]</t>
+    <t xml:space="preserve">e-IPV </t>
   </si>
   <si>
     <t xml:space="preserve">IPOL</t>
@@ -209,7 +209,7 @@
     <t xml:space="preserve">$36.89</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A Pediatric [5]</t>
+    <t xml:space="preserve">Hepatitis A Pediatric </t>
   </si>
   <si>
     <t xml:space="preserve">Vaqta</t>
@@ -236,7 +236,7 @@
     <t xml:space="preserve">$34.847</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A-Hepatitis B 18 only [3]</t>
+    <t xml:space="preserve">Hepatitis A-Hepatitis B 18 only </t>
   </si>
   <si>
     <t xml:space="preserve">Twinrix</t>
@@ -251,8 +251,7 @@
     <t xml:space="preserve">$112.354</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B [5]
-Pediatric/Adolescent</t>
+    <t xml:space="preserve">Hepatitis B  Pediatric/Adolescent</t>
   </si>
   <si>
     <t xml:space="preserve">Engerix B</t>
@@ -267,8 +266,7 @@
     <t xml:space="preserve">$25.351</t>
   </si>
   <si>
-    <t xml:space="preserve">Recombivax
-HB</t>
+    <t xml:space="preserve">Recombivax HB</t>
   </si>
   <si>
     <t xml:space="preserve">00006-4981-00</t>
@@ -280,7 +278,7 @@
     <t xml:space="preserve">$24.878</t>
   </si>
   <si>
-    <t xml:space="preserve">Hib [5]</t>
+    <t xml:space="preserve">Hib </t>
   </si>
   <si>
     <t xml:space="preserve">PedvaxHIB</t>
@@ -319,7 +317,7 @@
     <t xml:space="preserve">$11.569</t>
   </si>
   <si>
-    <t xml:space="preserve">HPV - Human Papillomavirus 9-valent [5]</t>
+    <t xml:space="preserve">HPV - Human Papillomavirus 9-valent </t>
   </si>
   <si>
     <t xml:space="preserve">Gardasil9</t>
@@ -334,7 +332,7 @@
     <t xml:space="preserve">$239.29</t>
   </si>
   <si>
-    <t xml:space="preserve">MENB - Meningococcal Group B [5]</t>
+    <t xml:space="preserve">MENB - Meningococcal Group B </t>
   </si>
   <si>
     <t xml:space="preserve">Trumenba</t>
@@ -367,7 +365,7 @@
     <t xml:space="preserve">$191.745</t>
   </si>
   <si>
-    <t xml:space="preserve">Meningococcal Conjugate (Groups A, C, Y and W-135) [5]</t>
+    <t xml:space="preserve">Meningococcal Conjugate (Groups A, C, Y and W-135) </t>
   </si>
   <si>
     <t xml:space="preserve">Menactra</t>
@@ -403,7 +401,7 @@
     <t xml:space="preserve">$140.006</t>
   </si>
   <si>
-    <t xml:space="preserve">Measles, Mumps and Rubella (MMR) [1]</t>
+    <t xml:space="preserve">Measles, Mumps and Rubella (MMR) </t>
   </si>
   <si>
     <t xml:space="preserve">M-M-RII</t>
@@ -418,7 +416,7 @@
     <t xml:space="preserve">$82.499</t>
   </si>
   <si>
-    <t xml:space="preserve">MMR/Varicella [2]</t>
+    <t xml:space="preserve">MMR/Varicella </t>
   </si>
   <si>
     <t xml:space="preserve">ProQuad</t>
@@ -433,8 +431,7 @@
     <t xml:space="preserve">$236.034</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal
-13-valent [5] (Pediatric)</t>
+    <t xml:space="preserve">Pneumococcal 13-valent  (Pediatric)</t>
   </si>
   <si>
     <t xml:space="preserve">Prevnar 13TM</t>
@@ -464,7 +461,7 @@
     <t xml:space="preserve">$110.454</t>
   </si>
   <si>
-    <t xml:space="preserve">Rotavirus, Live, Oral, Pentavalent [5]</t>
+    <t xml:space="preserve">Rotavirus, Live, Oral, Pentavalent </t>
   </si>
   <si>
     <t xml:space="preserve">RotaTeq</t>
@@ -491,7 +488,7 @@
     <t xml:space="preserve">$87.882</t>
   </si>
   <si>
-    <t xml:space="preserve">Rotavirus, Live, Oral, Oral [5]</t>
+    <t xml:space="preserve">Rotavirus, Live, Oral, Oral </t>
   </si>
   <si>
     <t xml:space="preserve">Rotarix</t>
@@ -506,7 +503,7 @@
     <t xml:space="preserve">$127.032</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetanus and Diphtheria Toxoids [3]</t>
+    <t xml:space="preserve">Tetanus and Diphtheria Toxoids </t>
   </si>
   <si>
     <t xml:space="preserve">Tenivac</t>
@@ -542,7 +539,7 @@
     <t xml:space="preserve">75D30121D10578</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetanus Toxoid, Reduced Diphtheria Toxoid and Acellular Pertussis [1]</t>
+    <t xml:space="preserve">Tetanus Toxoid, Reduced Diphtheria Toxoid and Acellular Pertussis </t>
   </si>
   <si>
     <t xml:space="preserve">Boostrix</t>
@@ -578,7 +575,7 @@
     <t xml:space="preserve">5 pack - 1 dose syringe</t>
   </si>
   <si>
-    <t xml:space="preserve">Varicella [5]</t>
+    <t xml:space="preserve">Varicella </t>
   </si>
   <si>
     <t xml:space="preserve">Varivax</t>
@@ -593,7 +590,7 @@
     <t xml:space="preserve">$142.474</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A Adult [5]</t>
+    <t xml:space="preserve">Hepatitis A Adult </t>
   </si>
   <si>
     <t xml:space="preserve">00006-4096-02</t>
@@ -620,13 +617,13 @@
     <t xml:space="preserve">75D30121D11353</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A-Hepatitis B Adult [3]</t>
+    <t xml:space="preserve">Hepatitis A-Hepatitis B Adult </t>
   </si>
   <si>
     <t xml:space="preserve">$63.943</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B Adult [5]</t>
+    <t xml:space="preserve">Hepatitis B Adult </t>
   </si>
   <si>
     <t xml:space="preserve">Heplisav-B</t>
@@ -665,13 +662,13 @@
     <t xml:space="preserve">$34.009</t>
   </si>
   <si>
-    <t xml:space="preserve">HPV-Human Papillomavirus 9 Valent [5]</t>
+    <t xml:space="preserve">HPV-Human Papillomavirus 9 Valent </t>
   </si>
   <si>
     <t xml:space="preserve">$159.773</t>
   </si>
   <si>
-    <t xml:space="preserve">Measles, Mumps,  Rubella [1]</t>
+    <t xml:space="preserve">Measles, Mumps,  Rubella </t>
   </si>
   <si>
     <t xml:space="preserve">$53.929</t>
@@ -698,8 +695,7 @@
     <t xml:space="preserve">$111.398</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal
-13-valent [5]</t>
+    <t xml:space="preserve">Pneumococcal 13-valent </t>
   </si>
   <si>
     <t xml:space="preserve">Prevnar 13</t>
@@ -708,8 +704,7 @@
     <t xml:space="preserve">$137.22</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal
-15-valent [5]</t>
+    <t xml:space="preserve">Pneumococcal 15-valent </t>
   </si>
   <si>
     <t xml:space="preserve">Vaxneuvance</t>
@@ -724,8 +719,7 @@
     <t xml:space="preserve">$216.086</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal
-20-valent [5]</t>
+    <t xml:space="preserve">Pneumococcal 20-valent </t>
   </si>
   <si>
     <t xml:space="preserve">Prevnar 20</t>
@@ -788,12 +782,10 @@
     <t xml:space="preserve">$162.009</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 6 months and older)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluzone
-Quadrivalent</t>
+    <t xml:space="preserve">Influenza  (Age 6 months and older)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluzone Quadrivalent</t>
   </si>
   <si>
     <t xml:space="preserve">49281-0635-15</t>
@@ -820,8 +812,7 @@
     <t xml:space="preserve">49281-0421-10</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluarix
-Quadrivalent</t>
+    <t xml:space="preserve">Fluarix Quadrivalent</t>
   </si>
   <si>
     <t xml:space="preserve">58160-0887-52</t>
@@ -839,8 +830,7 @@
     <t xml:space="preserve">75D30121D10193</t>
   </si>
   <si>
-    <t xml:space="preserve">FluLaval
-Quadrivalent</t>
+    <t xml:space="preserve">FluLaval Quadrivalent</t>
   </si>
   <si>
     <t xml:space="preserve">19515-0818-52</t>
@@ -873,8 +863,7 @@
     <t xml:space="preserve">$25.01</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 6 -35 months)</t>
+    <t xml:space="preserve">Influenza  (Age 6 -35 months)</t>
   </si>
   <si>
     <t xml:space="preserve">Afluria Quadrivalent</t>
@@ -889,12 +878,10 @@
     <t xml:space="preserve">$19.11</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-Live, Intranasal (Age 2-49 years)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FluMist
-Quadrivalent</t>
+    <t xml:space="preserve">Influenza  Live, Intranasal (Age 2-49 years)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FluMist Quadrivalent</t>
   </si>
   <si>
     <t xml:space="preserve">66019-0308-10</t>
@@ -939,12 +926,7 @@
     <t xml:space="preserve">$15.80</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 36 months and older)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afluria
-Quadrivalent</t>
+    <t xml:space="preserve">Influenza  (Age 36 months and older)</t>
   </si>
   <si>
     <t xml:space="preserve">33332-0321-01</t>
@@ -3558,16 +3540,16 @@
         <v>303</v>
       </c>
       <c r="B9" t="s">
+        <v>283</v>
+      </c>
+      <c r="C9" t="s">
         <v>304</v>
-      </c>
-      <c r="C9" t="s">
-        <v>305</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F9" t="s">
         <v>286</v>
@@ -3587,19 +3569,19 @@
         <v>255</v>
       </c>
       <c r="B10" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="C10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D10" t="s">
         <v>258</v>
       </c>
       <c r="E10" t="s">
+        <v>307</v>
+      </c>
+      <c r="F10" t="s">
         <v>308</v>
-      </c>
-      <c r="F10" t="s">
-        <v>309</v>
       </c>
       <c r="G10" s="1">
         <v>44620</v>
@@ -3625,7 +3607,7 @@
         <v>290</v>
       </c>
       <c r="E11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F11" t="s">
         <v>292</v>
@@ -3637,7 +3619,7 @@
         <v>293</v>
       </c>
       <c r="I11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
